--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -450,10 +450,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1039508486409093</v>
+        <v>-0.1043144079515954</v>
       </c>
       <c r="D2">
-        <v>1.356024480794063E-17</v>
+        <v>8.191823666148314E-19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.02784004687823063</v>
+        <v>-0.04572573810156606</v>
       </c>
       <c r="D3">
-        <v>0.4299033397388671</v>
+        <v>0.1796410620926095</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -496,10 +496,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06206051360124989</v>
+        <v>-0.01461699437368272</v>
       </c>
       <c r="D4">
-        <v>0.004655356021359865</v>
+        <v>0.4895572783422083</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.0604794707822375</v>
+        <v>0.03154117989190997</v>
       </c>
       <c r="D5">
-        <v>0.00460556567607536</v>
+        <v>0.1241285237975225</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.0003434263106099015</v>
+        <v>-0.0135651547702872</v>
       </c>
       <c r="D6">
-        <v>0.9845974248424808</v>
+        <v>0.4300426938184996</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>

--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONTENT</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>STAT_COUNT</t>
+  </si>
+  <si>
+    <t>GAP_COUNT</t>
   </si>
   <si>
     <t>F</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,13 +444,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>-0.1043144079515954</v>
@@ -456,21 +462,24 @@
         <v>8.191823666148314E-19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-0.04572573810156606</v>
@@ -479,21 +488,24 @@
         <v>0.1796410620926095</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>-0.01461699437368272</v>
@@ -502,21 +514,24 @@
         <v>0.4895572783422083</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0.03154117989190997</v>
@@ -525,21 +540,24 @@
         <v>0.1241285237975225</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>-0.0135651547702872</v>
@@ -548,13 +566,16 @@
         <v>0.4300426938184996</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.1043144079515954</v>
+        <v>-0.1039508486409093</v>
       </c>
       <c r="D2">
-        <v>8.191823666148314E-19</v>
+        <v>1.356024480794063E-17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04572573810156606</v>
+        <v>-0.02784004687823063</v>
       </c>
       <c r="D3">
-        <v>0.1796410620926095</v>
+        <v>0.4299033397388671</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.01461699437368272</v>
+        <v>-0.06206051360124989</v>
       </c>
       <c r="D4">
-        <v>0.4895572783422083</v>
+        <v>0.004655356021359865</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.03154117989190997</v>
+        <v>-0.0604794707822375</v>
       </c>
       <c r="D5">
-        <v>0.1241285237975225</v>
+        <v>0.00460556567607536</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.0135651547702872</v>
+        <v>-0.0003434263106099015</v>
       </c>
       <c r="D6">
-        <v>0.4300426938184996</v>
+        <v>0.9845974248424808</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.1039508486409093</v>
+        <v>-0.1054283843061484</v>
       </c>
       <c r="D2">
-        <v>1.356024480794063E-17</v>
+        <v>2.260841888966971E-18</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.02784004687823063</v>
+        <v>-0.04001638236345373</v>
       </c>
       <c r="D3">
-        <v>0.4299033397388671</v>
+        <v>0.2196446189868552</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.06206051360124989</v>
+        <v>-0.0528903589650674</v>
       </c>
       <c r="D4">
-        <v>0.004655356021359865</v>
+        <v>0.01374708988746501</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0604794707822375</v>
+        <v>-0.05972751641613827</v>
       </c>
       <c r="D5">
-        <v>0.00460556567607536</v>
+        <v>0.004030957311355728</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.0003434263106099015</v>
+        <v>0.003479307057751402</v>
       </c>
       <c r="D6">
-        <v>0.9845974248424808</v>
+        <v>0.8393737595077368</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.1054283843061484</v>
+        <v>-0.1039508486409093</v>
       </c>
       <c r="D2">
-        <v>2.260841888966971E-18</v>
+        <v>1.356024480794063E-17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04001638236345373</v>
+        <v>-0.02784004687823063</v>
       </c>
       <c r="D3">
-        <v>0.2196446189868552</v>
+        <v>0.4299033397388671</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0528903589650674</v>
+        <v>-0.06206051360124989</v>
       </c>
       <c r="D4">
-        <v>0.01374708988746501</v>
+        <v>0.004655356021359865</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.05972751641613827</v>
+        <v>-0.0604794707822375</v>
       </c>
       <c r="D5">
-        <v>0.004030957311355728</v>
+        <v>0.00460556567607536</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.003479307057751402</v>
+        <v>-0.0003434263106099015</v>
       </c>
       <c r="D6">
-        <v>0.8393737595077368</v>
+        <v>0.9845974248424808</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/df_A_result.xlsx
+++ b/df_A_result.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
